--- a/data/trans_orig/P25F_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Dificultad-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>9152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3538</v>
+        <v>3441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14021</v>
+        <v>14316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5278911877701907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2040684056901278</v>
+        <v>0.1984827245638791</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8087991125074832</v>
+        <v>0.8257915769647666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -809,19 +809,19 @@
         <v>5532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1617</v>
+        <v>1669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9988</v>
+        <v>10238</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3652203535501458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1067620382871391</v>
+        <v>0.1101635626009196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6593766051851633</v>
+        <v>0.6758704678369324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -830,19 +830,19 @@
         <v>14684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7780</v>
+        <v>7367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22198</v>
+        <v>22188</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4520346285225331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2395015471532957</v>
+        <v>0.2267729895564154</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6833411145485909</v>
+        <v>0.6830300280315741</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7391</v>
+        <v>7311</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1351346510050441</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4263514417529536</v>
+        <v>0.4217285289266148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -880,19 +880,19 @@
         <v>6522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2652</v>
+        <v>2696</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11469</v>
+        <v>11272</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4305705907115349</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1750643603480111</v>
+        <v>0.1779479996409406</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.757130363803767</v>
+        <v>0.7441280074374261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -901,19 +901,19 @@
         <v>8865</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3737</v>
+        <v>4117</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15781</v>
+        <v>16789</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2729021492273609</v>
+        <v>0.2729021492273608</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1150374950347449</v>
+        <v>0.1267404006728705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4857851644194711</v>
+        <v>0.5168167370028287</v>
       </c>
     </row>
     <row r="7">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4957</v>
+        <v>5615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05644071921391634</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2859527221435857</v>
+        <v>0.3238648209474458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5158</v>
+        <v>5346</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03012131917174651</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1587854785893739</v>
+        <v>0.1645720529769837</v>
       </c>
     </row>
     <row r="8">
@@ -993,19 +993,19 @@
         <v>4863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10359</v>
+        <v>10411</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2805334420108488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05703819197823806</v>
+        <v>0.06429457332013477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5975695073367638</v>
+        <v>0.6005613516974914</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1014,19 +1014,19 @@
         <v>3093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6796</v>
+        <v>7061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2042090557383193</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04541403283539175</v>
+        <v>0.0435765255488042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.448639524669065</v>
+        <v>0.4661092146651989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1035,19 +1035,19 @@
         <v>7957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3375</v>
+        <v>3353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13682</v>
+        <v>14017</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2449419030783596</v>
+        <v>0.2449419030783595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1038792128208031</v>
+        <v>0.1032259430760861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4211687222301543</v>
+        <v>0.4314918742542483</v>
       </c>
     </row>
     <row r="9">
@@ -1186,19 +1186,19 @@
         <v>14101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5784</v>
+        <v>5545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25205</v>
+        <v>25544</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3767335751661543</v>
+        <v>0.3767335751661545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1545367068742494</v>
+        <v>0.148137961279417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6733942738713274</v>
+        <v>0.6824432579610493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1207,19 +1207,19 @@
         <v>4195</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>938</v>
+        <v>1430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9544</v>
+        <v>9501</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2611325038475381</v>
+        <v>0.261132503847538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05839376966082706</v>
+        <v>0.08902428229728984</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5941790405761329</v>
+        <v>0.5914960208415688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1228,19 +1228,19 @@
         <v>18296</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9169</v>
+        <v>9762</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29785</v>
+        <v>29272</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3420215230133163</v>
+        <v>0.3420215230133164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1714008363835126</v>
+        <v>0.1824863988320867</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5568038366931939</v>
+        <v>0.5472203192720634</v>
       </c>
     </row>
     <row r="12">
@@ -1257,19 +1257,19 @@
         <v>8347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2907</v>
+        <v>2491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18671</v>
+        <v>17248</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2229986731022613</v>
+        <v>0.2229986731022614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07765228989827901</v>
+        <v>0.06655804079194245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4988289209560259</v>
+        <v>0.4608155818630402</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1278,19 +1278,19 @@
         <v>3408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1193</v>
+        <v>1226</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7342</v>
+        <v>7322</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2121521842076105</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07425758841128899</v>
+        <v>0.07635431424473467</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4570907022623575</v>
+        <v>0.455812254117593</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1299,19 +1299,19 @@
         <v>11755</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5433</v>
+        <v>5486</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21257</v>
+        <v>20809</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2197417492356253</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1015729120802359</v>
+        <v>0.1025485307112756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.397370278319125</v>
+        <v>0.3890080511433922</v>
       </c>
     </row>
     <row r="13">
@@ -1331,16 +1331,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13076</v>
+        <v>13461</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08838035089095604</v>
+        <v>0.08838035089095606</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3493464577535532</v>
+        <v>0.359637927615214</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1349,19 +1349,19 @@
         <v>3355</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8335</v>
+        <v>8037</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2088691100036382</v>
+        <v>0.2088691100036383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05032150191859798</v>
+        <v>0.05185630480567467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5188769731842929</v>
+        <v>0.5003292236409573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1370,19 +1370,19 @@
         <v>6663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1729</v>
+        <v>1782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18239</v>
+        <v>16841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1245600509788791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03231269159215287</v>
+        <v>0.03332199783119838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3409546928884362</v>
+        <v>0.3148307707071197</v>
       </c>
     </row>
     <row r="14">
@@ -1399,19 +1399,19 @@
         <v>11674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4722</v>
+        <v>4617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20023</v>
+        <v>21499</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3118874008406282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1261490042032191</v>
+        <v>0.1233576071700493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5349461879844637</v>
+        <v>0.5743828563037682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1420,19 +1420,19 @@
         <v>5106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1897</v>
+        <v>2123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9095</v>
+        <v>9272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3178462019412133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1181208027099823</v>
+        <v>0.1321900206987059</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5661829088823397</v>
+        <v>0.5772022590305644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1441,19 +1441,19 @@
         <v>16780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9366</v>
+        <v>9808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26809</v>
+        <v>27697</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3136766767721791</v>
+        <v>0.313676676772179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.175080195315189</v>
+        <v>0.1833443973191145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5011722531607701</v>
+        <v>0.5177645208433447</v>
       </c>
     </row>
     <row r="15">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5741</v>
+        <v>6321</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04591356680489122</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2193553030424064</v>
+        <v>0.2415007633500203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5163</v>
+        <v>4787</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07791941452097295</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3659288411404803</v>
+        <v>0.3392871534154032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7580</v>
+        <v>6744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05712443859451092</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1881722474075224</v>
+        <v>0.1674168971681692</v>
       </c>
     </row>
     <row r="17">
@@ -1616,19 +1616,19 @@
         <v>11888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5297</v>
+        <v>5890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18861</v>
+        <v>18060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4542374170821192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2023943856305898</v>
+        <v>0.2250613837483531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7206495347073489</v>
+        <v>0.6900317528493417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1637,19 +1637,19 @@
         <v>4032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1351</v>
+        <v>1191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9068</v>
+        <v>8656</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2857564635270596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09573096649829008</v>
+        <v>0.0843920834836821</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6426319176534169</v>
+        <v>0.6134735797274929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1658,19 +1658,19 @@
         <v>15920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8822</v>
+        <v>8480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25056</v>
+        <v>24369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3952226274707326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2189957780249311</v>
+        <v>0.2105230804849319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6220086336436601</v>
+        <v>0.6049596512213511</v>
       </c>
     </row>
     <row r="18">
@@ -1687,19 +1687,19 @@
         <v>4409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1176</v>
+        <v>1138</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10069</v>
+        <v>10385</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1684533919627054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04491528615546526</v>
+        <v>0.04349840183895887</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3847183726572465</v>
+        <v>0.3968040653019668</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3863</v>
+        <v>4581</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05744506375820144</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2737884116545967</v>
+        <v>0.3246657557286176</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1729,19 +1729,19 @@
         <v>5219</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11436</v>
+        <v>11372</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1295698683603793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04393605998002069</v>
+        <v>0.04344428482560242</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2838928732604796</v>
+        <v>0.2823199424990366</v>
       </c>
     </row>
     <row r="19">
@@ -1758,19 +1758,19 @@
         <v>4288</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10717</v>
+        <v>10315</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1638553251916955</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04102498506011971</v>
+        <v>0.04084687774501223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4094788377378489</v>
+        <v>0.3941117027653202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1779,19 +1779,19 @@
         <v>2818</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6013</v>
+        <v>5864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1997157975146183</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04905113467037136</v>
+        <v>0.04501453083682316</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4261676634581824</v>
+        <v>0.4156202797635183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1800,19 +1800,19 @@
         <v>7106</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3241</v>
+        <v>2872</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14790</v>
+        <v>13525</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1764163784433952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08045265356098666</v>
+        <v>0.07129932593234434</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3671656767230054</v>
+        <v>0.3357671698534588</v>
       </c>
     </row>
     <row r="20">
@@ -1829,19 +1829,19 @@
         <v>4385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1514</v>
+        <v>1180</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10901</v>
+        <v>11274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1675402989585886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05785502337854671</v>
+        <v>0.04507097294398112</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4165124034964664</v>
+        <v>0.4307653585562131</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1850,19 +1850,19 @@
         <v>5350</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1854</v>
+        <v>2139</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9365</v>
+        <v>9657</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3791632606791476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1313924812082364</v>
+        <v>0.151560894462363</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6636871822289691</v>
+        <v>0.6843818358344156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1871,19 +1871,19 @@
         <v>9735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4589</v>
+        <v>4621</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16861</v>
+        <v>16243</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2416666871309819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1139160775777901</v>
+        <v>0.1147266644510204</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4185690274121081</v>
+        <v>0.403219843862784</v>
       </c>
     </row>
     <row r="21">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7730</v>
+        <v>7916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09060326236254271</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2798473191713242</v>
+        <v>0.2865973581703006</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1996,19 +1996,19 @@
         <v>3381</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10212</v>
+        <v>10090</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1695693564910143</v>
+        <v>0.1695693564910144</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02710218460925669</v>
+        <v>0.02530276082199793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5121475526596597</v>
+        <v>0.5060280169144467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2017,19 +2017,19 @@
         <v>5884</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1701</v>
+        <v>1930</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15267</v>
+        <v>14752</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1237084914793863</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03575859243935747</v>
+        <v>0.04058430169292469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3210059754323822</v>
+        <v>0.3101711508633149</v>
       </c>
     </row>
     <row r="23">
@@ -2046,19 +2046,19 @@
         <v>17552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10379</v>
+        <v>10059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23312</v>
+        <v>23332</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6354696921747702</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3757540210276256</v>
+        <v>0.3641826452599749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.844009843915111</v>
+        <v>0.8447187078800314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11464</v>
+        <v>9691</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1290532673375752</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.574972235591771</v>
+        <v>0.4860265279058483</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2088,19 +2088,19 @@
         <v>20126</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11715</v>
+        <v>11015</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30164</v>
+        <v>29509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4231629805689924</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2463302650524933</v>
+        <v>0.2315986562577796</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.634227907481922</v>
+        <v>0.6204510549877937</v>
       </c>
     </row>
     <row r="24">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9302</v>
+        <v>9968</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1046250482917687</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3367843829799732</v>
+        <v>0.3608780232552435</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>2513</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6681</v>
+        <v>8018</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1260510059283596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01890118097781512</v>
+        <v>0.02540046263473249</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3350830776966076</v>
+        <v>0.4021456680160478</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2159,19 +2159,19 @@
         <v>5403</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1837</v>
+        <v>1712</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12975</v>
+        <v>12876</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1136075267141297</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03862998364150261</v>
+        <v>0.03599626265643218</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2728223078930304</v>
+        <v>0.2707333698754475</v>
       </c>
     </row>
     <row r="25">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7960</v>
+        <v>7659</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08314682619827295</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2881856321509455</v>
+        <v>0.2772982570285653</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2209,19 +2209,19 @@
         <v>4717</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11468</v>
+        <v>11166</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2365827027508553</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04591950784920958</v>
+        <v>0.04632447529072074</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5751631926466604</v>
+        <v>0.5600168048144708</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2230,19 +2230,19 @@
         <v>7014</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1936</v>
+        <v>2239</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14425</v>
+        <v>15124</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1474722801045149</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04069911507608728</v>
+        <v>0.04707077611538318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.303293660326179</v>
+        <v>0.3179884014140238</v>
       </c>
     </row>
     <row r="26">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8308</v>
+        <v>7736</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08615517097264534</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3007699471365512</v>
+        <v>0.2800837756104304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2280,19 +2280,19 @@
         <v>6754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2535</v>
+        <v>2383</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12903</v>
+        <v>12457</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3387436674921954</v>
+        <v>0.3387436674921955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1271472524132304</v>
+        <v>0.1195276792682019</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6471376054000426</v>
+        <v>0.624746818355798</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2301,19 +2301,19 @@
         <v>9134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3938</v>
+        <v>3943</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17706</v>
+        <v>16924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1920487211329767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08279226675986338</v>
+        <v>0.08289890977497653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.372298029856948</v>
+        <v>0.3558456242260364</v>
       </c>
     </row>
     <row r="27">
@@ -2405,19 +2405,19 @@
         <v>3704</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1089</v>
+        <v>1026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10347</v>
+        <v>9388</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03412136360381401</v>
+        <v>0.034121363603814</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01003149189862108</v>
+        <v>0.009454793442129751</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09530768879513311</v>
+        <v>0.08648038848980545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2426,19 +2426,19 @@
         <v>4480</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12741</v>
+        <v>14070</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06865547102027564</v>
+        <v>0.06865547102027562</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01721427837160168</v>
+        <v>0.01709441623889882</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.195240531003109</v>
+        <v>0.2156082955710104</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2447,19 +2447,19 @@
         <v>8185</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3076</v>
+        <v>3548</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17424</v>
+        <v>17340</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04708694937054426</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01769806120413993</v>
+        <v>0.02040985185202171</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1002443267567182</v>
+        <v>0.09975855175004232</v>
       </c>
     </row>
     <row r="29">
@@ -2476,19 +2476,19 @@
         <v>52694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38391</v>
+        <v>39139</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68729</v>
+        <v>69559</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4853881452378659</v>
+        <v>0.4853881452378658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3536348659839759</v>
+        <v>0.360525076970941</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6330957226062459</v>
+        <v>0.6407448888351645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2497,19 +2497,19 @@
         <v>16332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8835</v>
+        <v>8853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25461</v>
+        <v>25767</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2502638542910757</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1353874018228333</v>
+        <v>0.1356564009153189</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3901514171439468</v>
+        <v>0.3948444937680244</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -2518,19 +2518,19 @@
         <v>69026</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51250</v>
+        <v>51568</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87163</v>
+        <v>86672</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3971123973417703</v>
+        <v>0.3971123973417704</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2948465214493571</v>
+        <v>0.2966743873466419</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5014570235383807</v>
+        <v>0.498635592321291</v>
       </c>
     </row>
     <row r="30">
@@ -2547,19 +2547,19 @@
         <v>17988</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9784</v>
+        <v>8931</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29999</v>
+        <v>28913</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1656992670538537</v>
+        <v>0.1656992670538536</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09012803854566084</v>
+        <v>0.0822674934883915</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2763370972176566</v>
+        <v>0.2663274986577306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2568,19 +2568,19 @@
         <v>13254</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7724</v>
+        <v>7452</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21460</v>
+        <v>20538</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2030964259372731</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1183643810675052</v>
+        <v>0.1141935348306242</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.328839990625444</v>
+        <v>0.3147190461000111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2589,19 +2589,19 @@
         <v>31242</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20253</v>
+        <v>20534</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44297</v>
+        <v>43976</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1797397651934952</v>
+        <v>0.1797397651934953</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1165164568769782</v>
+        <v>0.118133219659589</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2548451036162639</v>
+        <v>0.2529972091178515</v>
       </c>
     </row>
     <row r="31">
@@ -2618,19 +2618,19 @@
         <v>10872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4857</v>
+        <v>4196</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22670</v>
+        <v>24415</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1001441449018378</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04474119560421597</v>
+        <v>0.03865027043066363</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2088278479735856</v>
+        <v>0.2248952376683952</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2639,19 +2639,19 @@
         <v>10890</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5523</v>
+        <v>5800</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19699</v>
+        <v>20817</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.166873711558227</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08463354913874679</v>
+        <v>0.08887283127328267</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3018565539551911</v>
+        <v>0.3189828397533589</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2660,19 +2660,19 @@
         <v>21762</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12743</v>
+        <v>12850</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35209</v>
+        <v>36174</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1251972875595149</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07331035192110873</v>
+        <v>0.07392615422166456</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2025589047650886</v>
+        <v>0.208112698075979</v>
       </c>
     </row>
     <row r="32">
@@ -2689,19 +2689,19 @@
         <v>23302</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13524</v>
+        <v>13569</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35754</v>
+        <v>35631</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2146470792026287</v>
+        <v>0.2146470792026286</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1245806874846625</v>
+        <v>0.124987141710144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3293463043592925</v>
+        <v>0.3282154216029717</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -2710,19 +2710,19 @@
         <v>20303</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13374</v>
+        <v>13537</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30490</v>
+        <v>29299</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3111105371931485</v>
+        <v>0.3111105371931486</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2049422015256657</v>
+        <v>0.2074392464044529</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4672166051583843</v>
+        <v>0.4489630562255835</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -2731,19 +2731,19 @@
         <v>43605</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31046</v>
+        <v>31370</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57672</v>
+        <v>58269</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2508636005346751</v>
+        <v>0.250863600534675</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.178611623934946</v>
+        <v>0.1804752952428859</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3317931791900974</v>
+        <v>0.3352307011936031</v>
       </c>
     </row>
     <row r="33">
